--- a/data/ams_weekly_data/Nexlev/business_report_week5.xlsx
+++ b/data/ams_weekly_data/Nexlev/business_report_week5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\raw\sales\Week 5\Nexlev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\ams_weekly_data\Nexlev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42A879A-A219-4D15-B8CA-595BC89D85E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9625980F-42AC-4E9C-AAB7-DE4E3E7D6119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E08BA460-A793-4C37-86AF-BC3A8BA7FC19}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="411">
   <si>
     <t>SKU</t>
   </si>
@@ -2113,10 +2113,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B21FAB-95C0-4B15-A406-ADF9D5456779}">
-  <dimension ref="A1:X167"/>
+  <dimension ref="A1:X177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F143" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T167"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14124,6 +14125,206 @@
       </c>
       <c r="X167" s="3"/>
     </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>268</v>
+      </c>
+      <c r="B168" t="s">
+        <v>269</v>
+      </c>
+      <c r="C168" t="s">
+        <v>270</v>
+      </c>
+      <c r="D168" t="s">
+        <v>270</v>
+      </c>
+      <c r="P168">
+        <v>5</v>
+      </c>
+      <c r="T168" s="3">
+        <v>4158.4799999999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>260</v>
+      </c>
+      <c r="B169" t="s">
+        <v>261</v>
+      </c>
+      <c r="C169" t="s">
+        <v>262</v>
+      </c>
+      <c r="D169" t="s">
+        <v>262</v>
+      </c>
+      <c r="P169">
+        <v>2</v>
+      </c>
+      <c r="T169" s="3">
+        <v>1978.82</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>195</v>
+      </c>
+      <c r="B170" t="s">
+        <v>196</v>
+      </c>
+      <c r="C170" t="s">
+        <v>197</v>
+      </c>
+      <c r="D170" t="s">
+        <v>197</v>
+      </c>
+      <c r="P170">
+        <v>1</v>
+      </c>
+      <c r="T170" s="3">
+        <v>1232.2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>280</v>
+      </c>
+      <c r="B171" t="s">
+        <v>281</v>
+      </c>
+      <c r="C171" t="s">
+        <v>282</v>
+      </c>
+      <c r="D171" t="s">
+        <v>282</v>
+      </c>
+      <c r="P171">
+        <v>1</v>
+      </c>
+      <c r="T171" s="3">
+        <v>862.86</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>256</v>
+      </c>
+      <c r="B172" t="s">
+        <v>257</v>
+      </c>
+      <c r="C172" t="s">
+        <v>258</v>
+      </c>
+      <c r="D172" t="s">
+        <v>258</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="T172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>27</v>
+      </c>
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" t="s">
+        <v>29</v>
+      </c>
+      <c r="D173" t="s">
+        <v>29</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="T173" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>155</v>
+      </c>
+      <c r="B174" t="s">
+        <v>156</v>
+      </c>
+      <c r="C174" t="s">
+        <v>157</v>
+      </c>
+      <c r="D174" t="s">
+        <v>157</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="T174" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>55</v>
+      </c>
+      <c r="B175" t="s">
+        <v>56</v>
+      </c>
+      <c r="C175" t="s">
+        <v>57</v>
+      </c>
+      <c r="D175" t="s">
+        <v>57</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="T175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>159</v>
+      </c>
+      <c r="B176" t="s">
+        <v>160</v>
+      </c>
+      <c r="C176" t="s">
+        <v>161</v>
+      </c>
+      <c r="D176" t="s">
+        <v>161</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="T176" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>75</v>
+      </c>
+      <c r="B177" t="s">
+        <v>76</v>
+      </c>
+      <c r="C177" t="s">
+        <v>77</v>
+      </c>
+      <c r="D177" t="s">
+        <v>77</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="T177" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
